--- a/result/Model_result.xlsx
+++ b/result/Model_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\work\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D3E42C-1914-4EAF-9EE7-CBC553580527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5316E8C-B170-4F4E-89EE-8BF84D98DD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>AUC</t>
   </si>
   <si>
-    <t>Adaboost</t>
-  </si>
-  <si>
     <t>CatBoost</t>
   </si>
   <si>
@@ -81,6 +78,10 @@
   </si>
   <si>
     <t>Genetic Algorithm</t>
+  </si>
+  <si>
+    <t>Adaboost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -228,19 +229,19 @@
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -258,20 +259,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -557,7 +558,7 @@
   <dimension ref="C16:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="J17" sqref="J17:J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -571,7 +572,7 @@
   <sheetData>
     <row r="16" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J16" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>0</v>
@@ -593,11 +594,11 @@
       </c>
     </row>
     <row r="17" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J17" s="12" t="s">
-        <v>6</v>
+      <c r="J17" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L17" s="3">
         <v>0.89035160000000002</v>
@@ -611,14 +612,14 @@
       <c r="O17" s="4">
         <v>0.89023050000000004</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="12">
         <v>0.93610859999999996</v>
       </c>
     </row>
     <row r="18" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J18" s="12"/>
+      <c r="J18" s="15"/>
       <c r="K18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L18" s="3">
         <v>0.89835509999999996</v>
@@ -632,14 +633,14 @@
       <c r="O18" s="4">
         <v>0.8923662</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="12">
         <v>0.94477920000000004</v>
       </c>
     </row>
     <row r="19" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J19" s="12"/>
+      <c r="J19" s="15"/>
       <c r="K19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L19" s="3">
         <v>0.88871860000000003</v>
@@ -653,14 +654,14 @@
       <c r="O19" s="4">
         <v>0.89289189999999996</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="12">
         <v>0.95105130000000004</v>
       </c>
     </row>
     <row r="20" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J20" s="12"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L20" s="3">
         <v>0.91166579999999997</v>
@@ -674,16 +675,16 @@
       <c r="O20" s="4">
         <v>0.91343079999999999</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="12">
         <v>0.94644779999999995</v>
       </c>
     </row>
     <row r="21" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J21" s="12" t="s">
-        <v>7</v>
+      <c r="J21" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L21" s="3">
         <v>0.91397039999999996</v>
@@ -697,14 +698,14 @@
       <c r="O21" s="4">
         <v>0.91609680000000004</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="12">
         <v>0.96944649999999999</v>
       </c>
     </row>
     <row r="22" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J22" s="12"/>
+      <c r="J22" s="15"/>
       <c r="K22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L22" s="5">
         <v>0.91290000000000004</v>
@@ -718,14 +719,14 @@
       <c r="O22" s="2">
         <v>0.91469999999999996</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="13">
         <v>0.9718</v>
       </c>
     </row>
     <row r="23" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J23" s="12"/>
+      <c r="J23" s="15"/>
       <c r="K23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L23" s="5">
         <v>0.91769999999999996</v>
@@ -739,14 +740,14 @@
       <c r="O23" s="2">
         <v>0.91830000000000001</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="13">
         <v>0.97260000000000002</v>
       </c>
     </row>
     <row r="24" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J24" s="12"/>
+      <c r="J24" s="15"/>
       <c r="K24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L24" s="5">
         <v>0.93389999999999995</v>
@@ -760,16 +761,16 @@
       <c r="O24" s="2">
         <v>0.9274</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="13">
         <v>0.97629999999999995</v>
       </c>
     </row>
     <row r="25" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J25" s="12" t="s">
-        <v>8</v>
+      <c r="J25" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L25" s="5">
         <v>0.92249999999999999</v>
@@ -783,14 +784,14 @@
       <c r="O25" s="2">
         <v>0.9163</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="13">
         <v>0.96850000000000003</v>
       </c>
     </row>
     <row r="26" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J26" s="12"/>
+      <c r="J26" s="15"/>
       <c r="K26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L26" s="5">
         <v>0.92210000000000003</v>
@@ -804,14 +805,14 @@
       <c r="O26" s="2">
         <v>0.9173</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P26" s="13">
         <v>0.96950000000000003</v>
       </c>
     </row>
     <row r="27" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J27" s="12"/>
+      <c r="J27" s="15"/>
       <c r="K27" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L27" s="5">
         <v>0.9194</v>
@@ -825,14 +826,14 @@
       <c r="O27" s="2">
         <v>0.91559999999999997</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P27" s="13">
         <v>0.96930000000000005</v>
       </c>
     </row>
     <row r="28" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J28" s="12"/>
+      <c r="J28" s="15"/>
       <c r="K28" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L28" s="5">
         <v>0.91959999999999997</v>
@@ -846,16 +847,16 @@
       <c r="O28" s="2">
         <v>0.91579999999999995</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="13">
         <v>0.97019999999999995</v>
       </c>
     </row>
     <row r="29" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J29" s="12" t="s">
-        <v>16</v>
+      <c r="J29" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L29" s="5">
         <v>0.92490000000000006</v>
@@ -869,14 +870,14 @@
       <c r="O29" s="2">
         <v>0.9194</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P29" s="13">
         <v>0.97570000000000001</v>
       </c>
     </row>
     <row r="30" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J30" s="12"/>
+      <c r="J30" s="15"/>
       <c r="K30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L30" s="5">
         <v>0.92569999999999997</v>
@@ -890,14 +891,14 @@
       <c r="O30" s="2">
         <v>0.92100000000000004</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P30" s="13">
         <v>0.97609999999999997</v>
       </c>
     </row>
     <row r="31" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J31" s="12"/>
+      <c r="J31" s="15"/>
       <c r="K31" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L31" s="5">
         <v>0.92779999999999996</v>
@@ -911,14 +912,14 @@
       <c r="O31" s="2">
         <v>0.92130000000000001</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P31" s="13">
         <v>0.97589999999999999</v>
       </c>
     </row>
     <row r="32" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J32" s="12"/>
+      <c r="J32" s="15"/>
       <c r="K32" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L32" s="5">
         <v>0.93720000000000003</v>
@@ -932,16 +933,16 @@
       <c r="O32" s="2">
         <v>0.92810000000000004</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P32" s="13">
         <v>0.98129999999999995</v>
       </c>
     </row>
     <row r="33" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J33" s="12" t="s">
-        <v>9</v>
+      <c r="J33" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L33" s="5">
         <v>0.93569999999999998</v>
@@ -955,14 +956,14 @@
       <c r="O33" s="2">
         <v>0.92630000000000001</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33" s="13">
         <v>0.98089999999999999</v>
       </c>
     </row>
     <row r="34" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J34" s="12"/>
+      <c r="J34" s="15"/>
       <c r="K34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L34" s="5">
         <v>0.92930000000000001</v>
@@ -976,14 +977,14 @@
       <c r="O34" s="2">
         <v>0.92949999999999999</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P34" s="13">
         <v>0.98119999999999996</v>
       </c>
     </row>
     <row r="35" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J35" s="12"/>
+      <c r="J35" s="15"/>
       <c r="K35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L35" s="5">
         <v>0.92730000000000001</v>
@@ -997,14 +998,14 @@
       <c r="O35" s="2">
         <v>0.92930000000000001</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P35" s="13">
         <v>0.98140000000000005</v>
       </c>
     </row>
     <row r="36" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J36" s="12"/>
+      <c r="J36" s="15"/>
       <c r="K36" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L36" s="2">
         <v>0.92390000000000005</v>
@@ -1018,16 +1019,16 @@
       <c r="O36" s="2">
         <v>0.92630000000000001</v>
       </c>
-      <c r="P36" s="14">
+      <c r="P36" s="13">
         <v>0.97619999999999996</v>
       </c>
     </row>
     <row r="37" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J37" s="12" t="s">
-        <v>10</v>
+      <c r="J37" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L37" s="5">
         <v>0.89080000000000004</v>
@@ -1041,14 +1042,14 @@
       <c r="O37" s="2">
         <v>0.878</v>
       </c>
-      <c r="P37" s="14">
+      <c r="P37" s="13">
         <v>0.93189999999999995</v>
       </c>
     </row>
     <row r="38" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J38" s="12"/>
+      <c r="J38" s="15"/>
       <c r="K38" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L38" s="2">
         <v>0.8931</v>
@@ -1062,14 +1063,14 @@
       <c r="O38" s="2">
         <v>0.89349999999999996</v>
       </c>
-      <c r="P38" s="14">
+      <c r="P38" s="13">
         <v>0.93510000000000004</v>
       </c>
     </row>
     <row r="39" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J39" s="12"/>
+      <c r="J39" s="15"/>
       <c r="K39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L39" s="5">
         <v>0.88580000000000003</v>
@@ -1083,14 +1084,14 @@
       <c r="O39" s="2">
         <v>0.87580000000000002</v>
       </c>
-      <c r="P39" s="14">
+      <c r="P39" s="13">
         <v>0.93710000000000004</v>
       </c>
     </row>
     <row r="40" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J40" s="12"/>
+      <c r="J40" s="15"/>
       <c r="K40" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L40" s="2">
         <v>0.92559999999999998</v>
@@ -1104,16 +1105,16 @@
       <c r="O40" s="2">
         <v>0.91969999999999996</v>
       </c>
-      <c r="P40" s="14">
+      <c r="P40" s="13">
         <v>0.94069999999999998</v>
       </c>
     </row>
     <row r="41" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J41" s="12" t="s">
-        <v>11</v>
+      <c r="J41" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L41" s="2">
         <v>0.91510000000000002</v>
@@ -1127,14 +1128,14 @@
       <c r="O41" s="2">
         <v>0.91039999999999999</v>
       </c>
-      <c r="P41" s="14">
+      <c r="P41" s="13">
         <v>0.96540000000000004</v>
       </c>
     </row>
     <row r="42" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J42" s="12"/>
+      <c r="J42" s="15"/>
       <c r="K42" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L42" s="2">
         <v>0.9143</v>
@@ -1148,14 +1149,14 @@
       <c r="O42" s="2">
         <v>0.90910000000000002</v>
       </c>
-      <c r="P42" s="14">
+      <c r="P42" s="13">
         <v>0.9647</v>
       </c>
     </row>
     <row r="43" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J43" s="12"/>
+      <c r="J43" s="15"/>
       <c r="K43" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L43" s="2">
         <v>0.90949999999999998</v>
@@ -1169,14 +1170,14 @@
       <c r="O43" s="2">
         <v>0.90669999999999995</v>
       </c>
-      <c r="P43" s="14">
+      <c r="P43" s="13">
         <v>0.96489999999999998</v>
       </c>
     </row>
     <row r="44" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J44" s="15"/>
+      <c r="J44" s="16"/>
       <c r="K44" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L44" s="7">
         <v>0.93859999999999999</v>
@@ -1190,7 +1191,7 @@
       <c r="O44" s="7">
         <v>0.93789999999999996</v>
       </c>
-      <c r="P44" s="16">
+      <c r="P44" s="14">
         <v>0.95709999999999995</v>
       </c>
     </row>
